--- a/CodeSystem-pco-goal-domain-codes-example.xlsx
+++ b/CodeSystem-pco-goal-domain-codes-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T20:05:12+00:00</t>
+    <t>2024-08-08T15:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domain-codes-example.xlsx
+++ b/CodeSystem-pco-goal-domain-codes-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T15:53:25+00:00</t>
+    <t>2024-08-08T17:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
